--- a/csv/example.xlsx
+++ b/csv/example.xlsx
@@ -5,14 +5,14 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="main - example" sheetId="1" r:id="rId4"/>
+    <sheet name="main" sheetId="1" r:id="rId4"/>
     <sheet name="event" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -48,6 +48,72 @@
   </si>
   <si>
     <t>诸葛亮</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t>valname1_0</t>
+  </si>
+  <si>
+    <t>val1_0</t>
+  </si>
+  <si>
+    <t>valname1_1</t>
+  </si>
+  <si>
+    <t>val1_1</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>valname2_0</t>
+  </si>
+  <si>
+    <t>val2_0</t>
+  </si>
+  <si>
+    <t>valname2_1</t>
+  </si>
+  <si>
+    <t>val2_1</t>
+  </si>
+  <si>
+    <t>一顾茅庐</t>
+  </si>
+  <si>
+    <t>派人去请</t>
+  </si>
+  <si>
+    <t>personFavorability</t>
+  </si>
+  <si>
+    <t>亲自去</t>
+  </si>
+  <si>
+    <t>二顾茅庐</t>
+  </si>
+  <si>
+    <t>要求过来找我</t>
+  </si>
+  <si>
+    <t>下次再来</t>
+  </si>
+  <si>
+    <t>三顾茅庐，发现诸葛亮在家里睡觉</t>
+  </si>
+  <si>
+    <t>叫起来</t>
+  </si>
+  <si>
+    <t>等他醒来</t>
   </si>
 </sst>
 </file>
@@ -57,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -69,13 +135,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,8 +165,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -165,6 +242,93 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -214,47 +378,92 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -278,6 +487,8 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -294,10 +505,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -474,11 +685,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -487,34 +701,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -762,12 +976,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1058,7 +1272,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1339,7 +1553,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1409,6 +1623,110 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1423,87 +1741,215 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="12" width="16.3516" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="16.3516" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="16">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s" s="16">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="17">
+        <v>10001</v>
+      </c>
+      <c r="B2" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="22">
+        <v>10002</v>
+      </c>
+      <c r="B3" t="s" s="23">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s" s="24">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" t="s" s="24">
+        <v>30</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+    <row r="4" ht="31" customHeight="1">
+      <c r="A4" s="22">
+        <v>10003</v>
+      </c>
+      <c r="B4" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" t="s" s="24">
+        <v>33</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
